--- a/data/deerhurst_newest_gm_reviews.xlsx
+++ b/data/deerhurst_newest_gm_reviews.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad.FT\PXP-Scraper\PXP-Scraper\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Deerhurst+Resort0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="787">
   <si>
     <t>id_review</t>
   </si>
@@ -46,6 +51,9 @@
     <t>url_user</t>
   </si>
   <si>
+    <t>ChZDSUhNMG9nS0VJQ0FnSURnakxlYk5REAE</t>
+  </si>
+  <si>
     <t>ChdDSUhNMG9nS0VJQ0FnSUR5bUtyQm9RRRAB</t>
   </si>
   <si>
@@ -610,7 +618,7 @@
     <t>ChZDSUhNMG9nS0VJQ0FnSUQ4bmRuZ2FnEAE</t>
   </si>
   <si>
-    <t>ChZDSUhNMG9nS0VJQ0FnSUQ4cmZQOEV3EAE</t>
+    <t>Came here for the first time a few months ago to take my gf to the spa (after staying the night at the JW Marriott). Massages were not that great but they were very friendly. The restaurant was very over priced for being a pub and we wanted to go to the pool on the way out but it was full of screaming children. Maybe they should consider a separate adult area for the pool/spa guests as that would increase the overall experience.</t>
   </si>
   <si>
     <t>Front desk staff was so welcoming, room was impeccable and service was nothing but the best</t>
@@ -988,13 +996,13 @@
     <t>Stayed for a mini vaca, February 2019 and very much enjoyed our time here. The pool/hot tub area was great with both water features set at a good temperature. Got a massage in the spa and used the steam room which was awesome on this super cold weekend. The little arcade was a lot of fun even for 2 adults. Food was ok but not amazing and it was so cold some of the amenities were not available but we didn't mind that much. We stayed in one of the recently renovated suites with a separate bedroom and kitchen which worked out perfectly for us. Room was nice and modern. Would come here again.</t>
   </si>
   <si>
-    <t>12 hours ago</t>
+    <t>22 hours ago</t>
   </si>
   <si>
     <t>a day ago</t>
   </si>
   <si>
-    <t>6 days ago</t>
+    <t>3 days ago</t>
   </si>
   <si>
     <t>a week ago</t>
@@ -1003,6 +1011,9 @@
     <t>2 weeks ago</t>
   </si>
   <si>
+    <t>3 weeks ago</t>
+  </si>
+  <si>
     <t>a month ago</t>
   </si>
   <si>
@@ -1021,6 +1032,9 @@
     <t>6 months ago</t>
   </si>
   <si>
+    <t>Tyler Sarry</t>
+  </si>
+  <si>
     <t>Katrina McLeod</t>
   </si>
   <si>
@@ -1591,7 +1605,214 @@
     <t>Danielle DuBois</t>
   </si>
   <si>
-    <t>Marwan Felaefel</t>
+    <t>299</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/contrib/102401595472307042006/reviews?hl=en</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/103666438596259351163/reviews?hl=en</t>
@@ -2159,19 +2380,16 @@
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/110748240287999097495/reviews?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/contrib/112634828228182439531/reviews?hl=en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,6 +2466,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2294,7 +2520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2326,9 +2552,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2360,6 +2587,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2535,14 +2763,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2585,98 +2815,98 @@
         <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E2" s="2">
-        <v>44250.86129997326</v>
+        <v>44252.194378797823</v>
       </c>
       <c r="F2" s="2">
-        <v>44250.36129629629</v>
+        <v>44251.277708333328</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
+        <v>337</v>
+      </c>
+      <c r="I2" t="s">
+        <v>528</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2">
-        <v>44250.8613000427</v>
+        <v>44252.194378843997</v>
       </c>
       <c r="F3" s="2">
-        <v>44249.86129629629</v>
+        <v>44251.194374999999</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
+        <v>338</v>
+      </c>
+      <c r="I3" t="s">
+        <v>529</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E4" s="2">
-        <v>44250.86130007715</v>
+        <v>44252.194378878638</v>
       </c>
       <c r="F4" s="2">
-        <v>44244.86129629629</v>
+        <v>44249.194374999999</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="I4" t="s">
+        <v>530</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2687,63 +2917,66 @@
         <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E5" s="2">
-        <v>44250.86130014643</v>
+        <v>44252.194378913257</v>
       </c>
       <c r="F5" s="2">
-        <v>44244.86129629629</v>
+        <v>44245.194374999999</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E6" s="2">
-        <v>44250.86130020429</v>
+        <v>44252.194378959437</v>
       </c>
       <c r="F6" s="2">
-        <v>44243.86129629629</v>
+        <v>44245.194374999999</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>341</v>
+      </c>
+      <c r="I6" t="s">
+        <v>532</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2754,16 +2987,16 @@
         <v>328</v>
       </c>
       <c r="E7" s="2">
-        <v>44250.8613002507</v>
+        <v>44252.194378994071</v>
       </c>
       <c r="F7" s="2">
-        <v>44236.86129629629</v>
+        <v>44245.194374999999</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2772,33 +3005,30 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>202</v>
-      </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E8" s="2">
-        <v>44250.86130029648</v>
+        <v>44252.194379028697</v>
       </c>
       <c r="F8" s="2">
-        <v>44236.86129629629</v>
+        <v>44238.194374999999</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2807,109 +3037,109 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" s="2">
-        <v>44250.86130034307</v>
+        <v>44252.194379074877</v>
       </c>
       <c r="F9" s="2">
-        <v>44219.86129629629</v>
+        <v>44231.194374999999</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>344</v>
+      </c>
+      <c r="I9" t="s">
+        <v>533</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>203</v>
-      </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E10" s="2">
-        <v>44250.86130037768</v>
+        <v>44252.194379121072</v>
       </c>
       <c r="F10" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I10">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2">
-        <v>44250.8613004123</v>
+        <v>44252.1943791788</v>
       </c>
       <c r="F11" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>346</v>
+      </c>
+      <c r="I11" t="s">
+        <v>534</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2917,98 +3147,98 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2">
-        <v>44250.86130044694</v>
+        <v>44252.194379224973</v>
       </c>
       <c r="F12" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
+        <v>347</v>
+      </c>
+      <c r="I12" t="s">
+        <v>535</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>204</v>
-      </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E13" s="2">
-        <v>44250.86130048119</v>
+        <v>44252.194379259759</v>
       </c>
       <c r="F13" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>348</v>
+      </c>
+      <c r="I13" t="s">
+        <v>536</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
       <c r="D14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E14" s="2">
-        <v>44250.86130051623</v>
+        <v>44252.194379305773</v>
       </c>
       <c r="F14" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
+        <v>349</v>
+      </c>
+      <c r="I14" t="s">
+        <v>537</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3016,31 +3246,31 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E15" s="2">
-        <v>44250.86130055083</v>
+        <v>44252.194379351953</v>
       </c>
       <c r="F15" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
+        <v>350</v>
+      </c>
+      <c r="I15" t="s">
+        <v>538</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3048,31 +3278,31 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2">
-        <v>44250.86130058507</v>
+        <v>44252.194379386572</v>
       </c>
       <c r="F16" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>349</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="I16" t="s">
+        <v>538</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3080,31 +3310,31 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E17" s="2">
-        <v>44250.86130063122</v>
+        <v>44252.194379421213</v>
       </c>
       <c r="F17" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="I17" t="s">
+        <v>539</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3112,19 +3342,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E18" s="2">
-        <v>44250.86130068935</v>
+        <v>44252.194379467393</v>
       </c>
       <c r="F18" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3133,45 +3363,42 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>205</v>
-      </c>
       <c r="D19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E19" s="2">
-        <v>44250.86130072371</v>
+        <v>44252.194379502122</v>
       </c>
       <c r="F19" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>352</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+        <v>354</v>
+      </c>
+      <c r="I19" t="s">
+        <v>540</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3182,31 +3409,28 @@
         <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E20" s="2">
-        <v>44250.86130075865</v>
+        <v>44252.194379548193</v>
       </c>
       <c r="F20" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3217,98 +3441,98 @@
         <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E21" s="2">
-        <v>44250.86130081592</v>
+        <v>44252.194379582827</v>
       </c>
       <c r="F21" s="2">
-        <v>44219.86129629629</v>
+        <v>44221.194374999999</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>354</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="I21" t="s">
+        <v>541</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E22" s="2">
-        <v>44250.86149460271</v>
+        <v>44252.194556878392</v>
       </c>
       <c r="F22" s="2">
-        <v>44219.86149305556</v>
+        <v>44221.194548611107</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="I22" t="s">
+        <v>539</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E23" s="2">
-        <v>44250.86149464845</v>
+        <v>44252.194556924631</v>
       </c>
       <c r="F23" s="2">
-        <v>44219.86149305556</v>
+        <v>44221.194548611107</v>
       </c>
       <c r="G23">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>356</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>358</v>
+      </c>
+      <c r="I23" t="s">
+        <v>542</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3319,31 +3543,31 @@
         <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E24" s="2">
-        <v>44250.8614947061</v>
+        <v>44252.194556970782</v>
       </c>
       <c r="F24" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
+        <v>359</v>
+      </c>
+      <c r="I24" t="s">
+        <v>543</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3354,31 +3578,31 @@
         <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E25" s="2">
-        <v>44250.86149475227</v>
+        <v>44252.194557028473</v>
       </c>
       <c r="F25" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="I25" t="s">
+        <v>536</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3389,63 +3613,66 @@
         <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E26" s="2">
-        <v>44250.86149479844</v>
+        <v>44252.194557097922</v>
       </c>
       <c r="F26" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>359</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>361</v>
+      </c>
+      <c r="I26" t="s">
+        <v>544</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
       <c r="D27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E27" s="2">
-        <v>44250.86149484503</v>
+        <v>44252.194557143906</v>
       </c>
       <c r="F27" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="I27" t="s">
+        <v>545</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3453,66 +3680,60 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E28" s="2">
-        <v>44250.86149487922</v>
+        <v>44252.194557190152</v>
       </c>
       <c r="F28" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>361</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E29" s="2">
-        <v>44250.86149493696</v>
+        <v>44252.194557236333</v>
       </c>
       <c r="F29" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="I29" t="s">
+        <v>546</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3523,31 +3744,31 @@
         <v>213</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E30" s="2">
-        <v>44250.86149497158</v>
+        <v>44252.194557282557</v>
       </c>
       <c r="F30" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
+        <v>365</v>
+      </c>
+      <c r="I30" t="s">
+        <v>547</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3558,98 +3779,98 @@
         <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E31" s="2">
-        <v>44250.86149501776</v>
+        <v>44252.194557328738</v>
       </c>
       <c r="F31" s="2">
-        <v>44188.86149305556</v>
+        <v>44190.194548611107</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>364</v>
-      </c>
-      <c r="I31">
-        <v>15</v>
+        <v>366</v>
+      </c>
+      <c r="I31" t="s">
+        <v>548</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
+      <c r="C32" t="s">
+        <v>215</v>
+      </c>
       <c r="D32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E32" s="2">
-        <v>44250.86168166291</v>
+        <v>44252.194735666228</v>
       </c>
       <c r="F32" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G32">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>365</v>
-      </c>
-      <c r="I32">
-        <v>6</v>
+        <v>367</v>
+      </c>
+      <c r="I32" t="s">
+        <v>530</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
-        <v>215</v>
-      </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2">
-        <v>44250.86168169755</v>
+        <v>44252.194735701007</v>
       </c>
       <c r="F33" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>366</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
+        <v>368</v>
+      </c>
+      <c r="I33" t="s">
+        <v>529</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3660,98 +3881,98 @@
         <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E34" s="2">
-        <v>44250.86168172063</v>
+        <v>44252.194735747173</v>
       </c>
       <c r="F34" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>367</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+        <v>369</v>
+      </c>
+      <c r="I34" t="s">
+        <v>549</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E35" s="2">
-        <v>44250.86168175527</v>
+        <v>44252.194735793368</v>
       </c>
       <c r="F35" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>368</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="I35" t="s">
+        <v>550</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" t="s">
-        <v>217</v>
-      </c>
       <c r="D36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E36" s="2">
-        <v>44250.86168178989</v>
+        <v>44252.194735827972</v>
       </c>
       <c r="F36" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>371</v>
+      </c>
+      <c r="I36" t="s">
+        <v>551</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3762,31 +3983,31 @@
         <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2">
-        <v>44250.86168184764</v>
+        <v>44252.194735862613</v>
       </c>
       <c r="F37" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>370</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
+        <v>372</v>
+      </c>
+      <c r="I37" t="s">
+        <v>552</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3797,31 +4018,31 @@
         <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2">
-        <v>44250.86168188225</v>
+        <v>44252.194735908372</v>
       </c>
       <c r="F38" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="I38" t="s">
+        <v>538</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3832,31 +4053,31 @@
         <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E39" s="2">
-        <v>44250.86168191687</v>
+        <v>44252.194735942998</v>
       </c>
       <c r="F39" s="2">
-        <v>44188.86167824074</v>
+        <v>44190.194733796299</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>372</v>
-      </c>
-      <c r="I39">
-        <v>7</v>
+        <v>374</v>
+      </c>
+      <c r="I39" t="s">
+        <v>543</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3867,31 +4088,31 @@
         <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2">
-        <v>44250.86168195151</v>
+        <v>44252.194735989156</v>
       </c>
       <c r="F40" s="2">
-        <v>44158.86167824074</v>
+        <v>44160.194733796299</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>373</v>
-      </c>
-      <c r="I40">
-        <v>19</v>
+        <v>375</v>
+      </c>
+      <c r="I40" t="s">
+        <v>553</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3902,31 +4123,31 @@
         <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E41" s="2">
-        <v>44250.86168198613</v>
+        <v>44252.194736023797</v>
       </c>
       <c r="F41" s="2">
-        <v>44158.86167824074</v>
+        <v>44160.194733796299</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>374</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="I41" t="s">
+        <v>554</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3937,31 +4158,31 @@
         <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E42" s="2">
-        <v>44250.86186836919</v>
+        <v>44252.194916471039</v>
       </c>
       <c r="F42" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>375</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
+        <v>377</v>
+      </c>
+      <c r="I42" t="s">
+        <v>555</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3972,31 +4193,31 @@
         <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E43" s="2">
-        <v>44250.86186840382</v>
+        <v>44252.194916505672</v>
       </c>
       <c r="F43" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>376</v>
-      </c>
-      <c r="I43">
-        <v>17</v>
+        <v>378</v>
+      </c>
+      <c r="I43" t="s">
+        <v>536</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4007,130 +4228,133 @@
         <v>225</v>
       </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2">
-        <v>44250.86186846153</v>
+        <v>44252.194916540277</v>
       </c>
       <c r="F44" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>377</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="I44" t="s">
+        <v>534</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
       <c r="D45" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E45" s="2">
-        <v>44250.8618684851</v>
+        <v>44252.19491659815</v>
       </c>
       <c r="F45" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>378</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="I45" t="s">
+        <v>544</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
       <c r="D46" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E46" s="2">
-        <v>44250.86186851974</v>
+        <v>44252.19491663263</v>
       </c>
       <c r="F46" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>379</v>
-      </c>
-      <c r="I46">
-        <v>40</v>
+        <v>381</v>
+      </c>
+      <c r="I46" t="s">
+        <v>556</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
+      <c r="C47" t="s">
+        <v>227</v>
+      </c>
       <c r="D47" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E47" s="2">
-        <v>44250.861868566</v>
+        <v>44252.194916667257</v>
       </c>
       <c r="F47" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G47">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>380</v>
-      </c>
-      <c r="I47">
-        <v>9</v>
+        <v>382</v>
+      </c>
+      <c r="I47" t="s">
+        <v>557</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4138,66 +4362,63 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E48" s="2">
-        <v>44250.861868589</v>
+        <v>44252.194916713088</v>
       </c>
       <c r="F48" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>381</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
+        <v>383</v>
+      </c>
+      <c r="I48" t="s">
+        <v>556</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="C49" t="s">
-        <v>227</v>
-      </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E49" s="2">
-        <v>44250.86186862364</v>
+        <v>44252.194916748078</v>
       </c>
       <c r="F49" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>382</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>384</v>
+      </c>
+      <c r="I49" t="s">
+        <v>552</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4208,31 +4429,31 @@
         <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E50" s="2">
-        <v>44250.86186866935</v>
+        <v>44252.194916782741</v>
       </c>
       <c r="F50" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>383</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
+        <v>385</v>
+      </c>
+      <c r="I50" t="s">
+        <v>558</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4243,31 +4464,31 @@
         <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E51" s="2">
-        <v>44250.86186870441</v>
+        <v>44252.194916817338</v>
       </c>
       <c r="F51" s="2">
-        <v>44158.86186342593</v>
+        <v>44160.194907407407</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>384</v>
-      </c>
-      <c r="I51">
-        <v>12</v>
+        <v>386</v>
+      </c>
+      <c r="I51" t="s">
+        <v>540</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4278,31 +4499,31 @@
         <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E52" s="2">
-        <v>44250.86205925169</v>
+        <v>44252.195101356658</v>
       </c>
       <c r="F52" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>385</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
+        <v>387</v>
+      </c>
+      <c r="I52" t="s">
+        <v>541</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4313,31 +4534,31 @@
         <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E53" s="2">
-        <v>44250.86205928631</v>
+        <v>44252.195101402838</v>
       </c>
       <c r="F53" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="I53" t="s">
+        <v>538</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4348,31 +4569,31 @@
         <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E54" s="2">
-        <v>44250.86205932093</v>
+        <v>44252.195101437457</v>
       </c>
       <c r="F54" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G54">
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>387</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+        <v>389</v>
+      </c>
+      <c r="I54" t="s">
+        <v>543</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4383,31 +4604,31 @@
         <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E55" s="2">
-        <v>44250.8620593556</v>
+        <v>44252.195101483638</v>
       </c>
       <c r="F55" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>388</v>
-      </c>
-      <c r="I55">
-        <v>13</v>
+        <v>390</v>
+      </c>
+      <c r="I55" t="s">
+        <v>539</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4418,165 +4639,165 @@
         <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E56" s="2">
-        <v>44250.86205937865</v>
+        <v>44252.195101518279</v>
       </c>
       <c r="F56" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>389</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+        <v>391</v>
+      </c>
+      <c r="I56" t="s">
+        <v>559</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
+      <c r="C57" t="s">
+        <v>235</v>
+      </c>
       <c r="D57" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E57" s="2">
-        <v>44250.86205941327</v>
+        <v>44252.195101575977</v>
       </c>
       <c r="F57" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>390</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+        <v>392</v>
+      </c>
+      <c r="I57" t="s">
+        <v>560</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C58" t="s">
-        <v>235</v>
-      </c>
       <c r="D58" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E58" s="2">
-        <v>44250.86205944791</v>
+        <v>44252.19510164528</v>
       </c>
       <c r="F58" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G58">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>391</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="I58" t="s">
+        <v>537</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
       <c r="D59" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E59" s="2">
-        <v>44250.86205948255</v>
+        <v>44252.195101691417</v>
       </c>
       <c r="F59" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
       </c>
-      <c r="C60" t="s">
-        <v>236</v>
-      </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E60" s="2">
-        <v>44250.86205952871</v>
+        <v>44252.195101726073</v>
       </c>
       <c r="F60" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>393</v>
-      </c>
-      <c r="I60">
-        <v>9</v>
+        <v>395</v>
+      </c>
+      <c r="I60" t="s">
+        <v>553</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4587,31 +4808,31 @@
         <v>237</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E61" s="2">
-        <v>44250.86205955181</v>
+        <v>44252.195101772231</v>
       </c>
       <c r="F61" s="2">
-        <v>44158.86204861111</v>
+        <v>44160.195092592592</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>394</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="I61" t="s">
+        <v>556</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4622,31 +4843,31 @@
         <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E62" s="2">
-        <v>44250.8622473513</v>
+        <v>44252.195282807566</v>
       </c>
       <c r="F62" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>395</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="I62" t="s">
+        <v>561</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4657,31 +4878,31 @@
         <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E63" s="2">
-        <v>44250.86224739747</v>
+        <v>44252.19528285374</v>
       </c>
       <c r="F63" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>396</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
+        <v>398</v>
+      </c>
+      <c r="I63" t="s">
+        <v>562</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4692,101 +4913,101 @@
         <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E64" s="2">
-        <v>44250.86224746675</v>
+        <v>44252.19528288838</v>
       </c>
       <c r="F64" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>397</v>
-      </c>
-      <c r="I64">
-        <v>12</v>
+        <v>399</v>
+      </c>
+      <c r="I64" t="s">
+        <v>539</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E65" s="2">
-        <v>44250.86224752444</v>
+        <v>44252.195282934561</v>
       </c>
       <c r="F65" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>398</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I65" t="s">
+        <v>541</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E66" s="2">
-        <v>44250.86224755951</v>
+        <v>44252.195282980727</v>
       </c>
       <c r="F66" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4797,31 +5018,31 @@
         <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E67" s="2">
-        <v>44250.86224760537</v>
+        <v>44252.19528301536</v>
       </c>
       <c r="F67" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>400</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
+        <v>402</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4832,63 +5053,66 @@
         <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E68" s="2">
-        <v>44250.86224764031</v>
+        <v>44252.195283084649</v>
       </c>
       <c r="F68" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>401</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
+        <v>403</v>
+      </c>
+      <c r="I68" t="s">
+        <v>536</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
+      <c r="C69" t="s">
+        <v>245</v>
+      </c>
       <c r="D69" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E69" s="2">
-        <v>44250.86224767494</v>
+        <v>44252.195283119552</v>
       </c>
       <c r="F69" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>402</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="I69" t="s">
+        <v>563</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4896,31 +5120,31 @@
         <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E70" s="2">
-        <v>44250.86224769802</v>
+        <v>44252.19528316582</v>
       </c>
       <c r="F70" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>403</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
+        <v>405</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4928,121 +5152,121 @@
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E71" s="2">
-        <v>44250.86224773265</v>
+        <v>44252.195283200519</v>
       </c>
       <c r="F71" s="2">
-        <v>44158.86224537037</v>
+        <v>44160.195277777777</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>404</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
+        <v>406</v>
+      </c>
+      <c r="I71" t="s">
+        <v>536</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
       </c>
-      <c r="C72" t="s">
-        <v>245</v>
-      </c>
       <c r="D72" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E72" s="2">
-        <v>44250.86243686778</v>
+        <v>44252.19546316436</v>
       </c>
       <c r="F72" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>405</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
+        <v>407</v>
+      </c>
+      <c r="I72" t="s">
+        <v>539</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>246</v>
       </c>
       <c r="D73" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E73" s="2">
-        <v>44250.86243691403</v>
+        <v>44252.195463199001</v>
       </c>
       <c r="F73" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>398</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
+        <v>408</v>
+      </c>
+      <c r="I73" t="s">
+        <v>564</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E74" s="2">
-        <v>44250.86243694866</v>
+        <v>44252.195463245167</v>
       </c>
       <c r="F74" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5051,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5062,66 +5286,63 @@
         <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E75" s="2">
-        <v>44250.86243697174</v>
+        <v>44252.195463291348</v>
       </c>
       <c r="F75" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>407</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76" t="s">
-        <v>247</v>
-      </c>
       <c r="D76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E76" s="2">
-        <v>44250.86243700636</v>
+        <v>44252.195463325981</v>
       </c>
       <c r="F76" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>408</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
+        <v>410</v>
+      </c>
+      <c r="I76" t="s">
+        <v>565</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5132,31 +5353,28 @@
         <v>248</v>
       </c>
       <c r="D77" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E77" s="2">
-        <v>44250.8624370294</v>
+        <v>44252.195463360607</v>
       </c>
       <c r="F77" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>409</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5167,121 +5385,118 @@
         <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E78" s="2">
-        <v>44250.86243706402</v>
+        <v>44252.195463406781</v>
       </c>
       <c r="F78" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>410</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
+        <v>412</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
       </c>
+      <c r="C79" t="s">
+        <v>250</v>
+      </c>
       <c r="D79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E79" s="2">
-        <v>44250.86243711021</v>
+        <v>44252.195463464523</v>
       </c>
       <c r="F79" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>411</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="I79" t="s">
+        <v>541</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E80" s="2">
-        <v>44250.86243714482</v>
+        <v>44252.195463499163</v>
       </c>
       <c r="F80" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>398</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E81" s="2">
-        <v>44250.86243717909</v>
+        <v>44252.195463557277</v>
       </c>
       <c r="F81" s="2">
-        <v>44127.86243055556</v>
+        <v>44129.195462962962</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5290,42 +5505,45 @@
         <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E82" s="2">
-        <v>44250.86260703575</v>
+        <v>44252.195637321318</v>
       </c>
       <c r="F82" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5333,133 +5551,130 @@
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E83" s="2">
-        <v>44250.86260708149</v>
+        <v>44252.1956373906</v>
       </c>
       <c r="F83" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>413</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="I83" t="s">
+        <v>538</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
-      <c r="C84" t="s">
-        <v>252</v>
-      </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E84" s="2">
-        <v>44250.86260711661</v>
+        <v>44252.195637448312</v>
       </c>
       <c r="F84" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>414</v>
-      </c>
-      <c r="I84">
-        <v>12</v>
+        <v>416</v>
+      </c>
+      <c r="I84" t="s">
+        <v>553</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
       <c r="D85" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E85" s="2">
-        <v>44250.86260715125</v>
+        <v>44252.195637494493</v>
       </c>
       <c r="F85" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>415</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
+        <v>417</v>
+      </c>
+      <c r="I85" t="s">
+        <v>541</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C86" t="s">
-        <v>253</v>
-      </c>
       <c r="D86" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E86" s="2">
-        <v>44250.86260717431</v>
+        <v>44252.195637529112</v>
       </c>
       <c r="F86" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G86">
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>416</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
+        <v>418</v>
+      </c>
+      <c r="I86" t="s">
+        <v>534</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5470,31 +5685,31 @@
         <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E87" s="2">
-        <v>44250.86260720895</v>
+        <v>44252.195637563753</v>
       </c>
       <c r="F87" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G87">
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>417</v>
-      </c>
-      <c r="I87">
-        <v>15</v>
+        <v>419</v>
+      </c>
+      <c r="I87" t="s">
+        <v>567</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5505,98 +5720,95 @@
         <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E88" s="2">
-        <v>44250.86260726622</v>
+        <v>44252.195637609933</v>
       </c>
       <c r="F88" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G88">
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>418</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
+        <v>420</v>
+      </c>
+      <c r="I88" t="s">
+        <v>530</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
       </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E89" s="2">
-        <v>44250.8626073008</v>
+        <v>44252.195637656107</v>
       </c>
       <c r="F89" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>419</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
+        <v>421</v>
+      </c>
+      <c r="I89" t="s">
+        <v>568</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
-      <c r="C90" t="s">
-        <v>256</v>
-      </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E90" s="2">
-        <v>44250.86260733543</v>
+        <v>44252.195637690733</v>
       </c>
       <c r="F90" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>420</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5607,31 +5819,31 @@
         <v>257</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E91" s="2">
-        <v>44250.86260737006</v>
+        <v>44252.195637736913</v>
       </c>
       <c r="F91" s="2">
-        <v>44127.86260416666</v>
+        <v>44129.195636574077</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>421</v>
-      </c>
-      <c r="I91">
-        <v>6</v>
+        <v>423</v>
+      </c>
+      <c r="I91" t="s">
+        <v>538</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5642,98 +5854,98 @@
         <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E92" s="2">
-        <v>44250.86279654731</v>
+        <v>44252.19581879241</v>
       </c>
       <c r="F92" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>422</v>
-      </c>
-      <c r="I92">
-        <v>4</v>
+        <v>424</v>
+      </c>
+      <c r="I92" t="s">
+        <v>529</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E93" s="2">
-        <v>44250.86279661611</v>
+        <v>44252.195818838591</v>
       </c>
       <c r="F93" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>423</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
+        <v>425</v>
+      </c>
+      <c r="I93" t="s">
+        <v>540</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
-      <c r="C94" t="s">
-        <v>259</v>
-      </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E94" s="2">
-        <v>44250.86279666228</v>
+        <v>44252.195818884771</v>
       </c>
       <c r="F94" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G94">
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>424</v>
-      </c>
-      <c r="I94">
-        <v>10</v>
+        <v>426</v>
+      </c>
+      <c r="I94" t="s">
+        <v>538</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5744,165 +5956,165 @@
         <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E95" s="2">
-        <v>44250.86279669691</v>
+        <v>44252.195818919397</v>
       </c>
       <c r="F95" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>425</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="I95" t="s">
+        <v>548</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E96" s="2">
-        <v>44250.86279674308</v>
+        <v>44252.195818965571</v>
       </c>
       <c r="F96" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>398</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
+        <v>428</v>
+      </c>
+      <c r="I96" t="s">
+        <v>569</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>262</v>
       </c>
       <c r="D97" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E97" s="2">
-        <v>44250.86279678926</v>
+        <v>44252.195819012188</v>
       </c>
       <c r="F97" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E98" s="2">
-        <v>44250.86279683543</v>
+        <v>44252.195819069937</v>
       </c>
       <c r="F98" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>398</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E99" s="2">
-        <v>44250.86279687007</v>
+        <v>44252.195819104527</v>
       </c>
       <c r="F99" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5910,270 +6122,267 @@
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E100" s="2">
-        <v>44250.86279691624</v>
+        <v>44252.195819139153</v>
       </c>
       <c r="F100" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>428</v>
-      </c>
-      <c r="I100">
-        <v>5</v>
+        <v>430</v>
+      </c>
+      <c r="I100" t="s">
+        <v>538</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E101" s="2">
-        <v>44250.86279696241</v>
+        <v>44252.195819185297</v>
       </c>
       <c r="F101" s="2">
-        <v>44127.86278935185</v>
+        <v>44129.195810185192</v>
       </c>
       <c r="G101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>398</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="I101" t="s">
+        <v>536</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
         <v>264</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E102" s="2">
-        <v>44250.86298713229</v>
+        <v>44252.19600670752</v>
       </c>
       <c r="F102" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G102">
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="I102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
+      <c r="C103" t="s">
+        <v>265</v>
+      </c>
       <c r="D103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E103" s="2">
-        <v>44250.86298722424</v>
+        <v>44252.196006753373</v>
       </c>
       <c r="F103" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G103">
         <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>430</v>
-      </c>
-      <c r="I103">
-        <v>2</v>
+        <v>432</v>
+      </c>
+      <c r="I103" t="s">
+        <v>536</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
-        <v>265</v>
-      </c>
       <c r="D104" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E104" s="2">
-        <v>44250.86298725914</v>
+        <v>44252.196006788297</v>
       </c>
       <c r="F104" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>431</v>
-      </c>
-      <c r="I104">
-        <v>47</v>
+        <v>433</v>
+      </c>
+      <c r="I104" t="s">
+        <v>538</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
         <v>266</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E105" s="2">
-        <v>44250.86298729372</v>
+        <v>44252.196006822938</v>
       </c>
       <c r="F105" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>398</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
+        <v>434</v>
+      </c>
+      <c r="I105" t="s">
+        <v>570</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>267</v>
       </c>
       <c r="D106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E106" s="2">
-        <v>44250.86298732796</v>
+        <v>44252.196006868653</v>
       </c>
       <c r="F106" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G106">
         <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="I106">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C107" t="s">
-        <v>267</v>
-      </c>
       <c r="D107" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E107" s="2">
-        <v>44250.86298736259</v>
+        <v>44252.19600690373</v>
       </c>
       <c r="F107" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>433</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="I107" t="s">
+        <v>553</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6184,89 +6393,89 @@
         <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E108" s="2">
-        <v>44250.86298739722</v>
+        <v>44252.1960069384</v>
       </c>
       <c r="F108" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.19599537037</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>434</v>
-      </c>
-      <c r="I108">
-        <v>6</v>
+        <v>436</v>
+      </c>
+      <c r="I108" t="s">
+        <v>571</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>269</v>
       </c>
       <c r="D109" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E109" s="2">
-        <v>44250.86298742031</v>
+        <v>44252.196006984072</v>
       </c>
       <c r="F109" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.196006944447</v>
       </c>
       <c r="G109">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>398</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
+        <v>437</v>
+      </c>
+      <c r="I109" t="s">
+        <v>529</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
         <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E110" s="2">
-        <v>44250.86298745494</v>
+        <v>44252.196007030252</v>
       </c>
       <c r="F110" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.196006944447</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -6275,10 +6484,10 @@
         <v>0</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6289,31 +6498,31 @@
         <v>271</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E111" s="2">
-        <v>44250.86298748957</v>
+        <v>44252.196007100007</v>
       </c>
       <c r="F111" s="2">
-        <v>44127.86298611111</v>
+        <v>44129.196006944447</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>436</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>438</v>
+      </c>
+      <c r="I111" t="s">
+        <v>572</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6324,63 +6533,66 @@
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E112" s="2">
-        <v>44250.86318414072</v>
+        <v>44252.196192603493</v>
       </c>
       <c r="F112" s="2">
-        <v>44127.86318287037</v>
+        <v>44129.196192129632</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>437</v>
-      </c>
-      <c r="I112">
-        <v>33</v>
+        <v>439</v>
+      </c>
+      <c r="I112" t="s">
+        <v>529</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
+      <c r="C113" t="s">
+        <v>273</v>
+      </c>
       <c r="D113" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E113" s="2">
-        <v>44250.86318417538</v>
+        <v>44252.196192661293</v>
       </c>
       <c r="F113" s="2">
-        <v>44127.86318287037</v>
+        <v>44129.196192129632</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>438</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
+        <v>440</v>
+      </c>
+      <c r="I113" t="s">
+        <v>573</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6388,165 +6600,162 @@
         <v>113</v>
       </c>
       <c r="D114" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E114" s="2">
-        <v>44250.86318421002</v>
+        <v>44252.196192695817</v>
       </c>
       <c r="F114" s="2">
-        <v>44127.86318287037</v>
+        <v>44129.196192129632</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>439</v>
-      </c>
-      <c r="I114">
-        <v>3</v>
+        <v>441</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="D115" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E115" s="2">
-        <v>44250.86318424462</v>
+        <v>44252.196192765208</v>
       </c>
       <c r="F115" s="2">
-        <v>44127.86318287037</v>
+        <v>44129.196192129632</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>398</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
+        <v>442</v>
+      </c>
+      <c r="I115" t="s">
+        <v>549</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>274</v>
       </c>
       <c r="D116" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E116" s="2">
-        <v>44250.86318426771</v>
+        <v>44252.196192811287</v>
       </c>
       <c r="F116" s="2">
-        <v>44127.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G116">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="I116">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
       </c>
-      <c r="C117" t="s">
-        <v>274</v>
-      </c>
       <c r="D117" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E117" s="2">
-        <v>44250.86318430236</v>
+        <v>44252.196192880569</v>
       </c>
       <c r="F117" s="2">
-        <v>44127.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>441</v>
-      </c>
-      <c r="I117">
-        <v>21</v>
+        <v>443</v>
+      </c>
+      <c r="I117" t="s">
+        <v>553</v>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
       </c>
+      <c r="C118" t="s">
+        <v>275</v>
+      </c>
       <c r="D118" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E118" s="2">
-        <v>44250.86318432542</v>
+        <v>44252.19619294985</v>
       </c>
       <c r="F118" s="2">
-        <v>44127.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>442</v>
-      </c>
-      <c r="I118">
-        <v>2</v>
+        <v>444</v>
+      </c>
+      <c r="I118" t="s">
+        <v>574</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6554,31 +6763,31 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E119" s="2">
-        <v>44250.86318436007</v>
+        <v>44252.196193007687</v>
       </c>
       <c r="F119" s="2">
-        <v>44097.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G119">
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>443</v>
-      </c>
-      <c r="I119">
-        <v>24</v>
+        <v>445</v>
+      </c>
+      <c r="I119" t="s">
+        <v>538</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6586,31 +6795,31 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E120" s="2">
-        <v>44250.86318439426</v>
+        <v>44252.196193053707</v>
       </c>
       <c r="F120" s="2">
-        <v>44097.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>444</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
+        <v>446</v>
+      </c>
+      <c r="I120" t="s">
+        <v>535</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6618,31 +6827,31 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E121" s="2">
-        <v>44250.86318444079</v>
+        <v>44252.196193111842</v>
       </c>
       <c r="F121" s="2">
-        <v>44097.86318287037</v>
+        <v>44099.196192129632</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>445</v>
-      </c>
-      <c r="I121">
-        <v>5</v>
+        <v>447</v>
+      </c>
+      <c r="I121" t="s">
+        <v>575</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6650,66 +6859,63 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E122" s="2">
-        <v>44250.86337061284</v>
+        <v>44252.196378866553</v>
       </c>
       <c r="F122" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G122">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>446</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
+        <v>448</v>
+      </c>
+      <c r="I122" t="s">
+        <v>536</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
       </c>
-      <c r="C123" t="s">
-        <v>275</v>
-      </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E123" s="2">
-        <v>44250.86337064746</v>
+        <v>44252.196378912719</v>
       </c>
       <c r="F123" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>447</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
+        <v>449</v>
+      </c>
+      <c r="I123" t="s">
+        <v>576</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6720,165 +6926,165 @@
         <v>276</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E124" s="2">
-        <v>44250.86337069363</v>
+        <v>44252.196378946937</v>
       </c>
       <c r="F124" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>448</v>
-      </c>
-      <c r="I124">
-        <v>9</v>
+        <v>450</v>
+      </c>
+      <c r="I124" t="s">
+        <v>536</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
       </c>
+      <c r="C125" t="s">
+        <v>277</v>
+      </c>
       <c r="D125" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E125" s="2">
-        <v>44250.86337075146</v>
+        <v>44252.196378993111</v>
       </c>
       <c r="F125" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>449</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
+        <v>451</v>
+      </c>
+      <c r="I125" t="s">
+        <v>556</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
       </c>
-      <c r="C126" t="s">
-        <v>277</v>
-      </c>
       <c r="D126" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E126" s="2">
-        <v>44250.86337080907</v>
+        <v>44252.196379039291</v>
       </c>
       <c r="F126" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>450</v>
-      </c>
-      <c r="I126">
-        <v>4</v>
+        <v>452</v>
+      </c>
+      <c r="I126" t="s">
+        <v>577</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
       </c>
+      <c r="C127" t="s">
+        <v>278</v>
+      </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E127" s="2">
-        <v>44250.86337085525</v>
+        <v>44252.196379073917</v>
       </c>
       <c r="F127" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>451</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
+        <v>453</v>
+      </c>
+      <c r="I127" t="s">
+        <v>540</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
       </c>
-      <c r="C128" t="s">
-        <v>278</v>
-      </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E128" s="2">
-        <v>44250.86337088989</v>
+        <v>44252.196379108551</v>
       </c>
       <c r="F128" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>452</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
+        <v>454</v>
+      </c>
+      <c r="I128" t="s">
+        <v>540</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6889,31 +7095,31 @@
         <v>279</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E129" s="2">
-        <v>44250.86337093605</v>
+        <v>44252.196379143192</v>
       </c>
       <c r="F129" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>453</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
+        <v>455</v>
+      </c>
+      <c r="I129" t="s">
+        <v>578</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6924,63 +7130,66 @@
         <v>280</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E130" s="2">
-        <v>44250.86337098223</v>
+        <v>44252.196379200912</v>
       </c>
       <c r="F130" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>454</v>
-      </c>
-      <c r="I130">
-        <v>3</v>
+        <v>456</v>
+      </c>
+      <c r="I130" t="s">
+        <v>534</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
       </c>
+      <c r="C131" t="s">
+        <v>281</v>
+      </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E131" s="2">
-        <v>44250.86337101687</v>
+        <v>44252.196379247092</v>
       </c>
       <c r="F131" s="2">
-        <v>44097.86336805556</v>
+        <v>44099.196377314824</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>455</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
+        <v>457</v>
+      </c>
+      <c r="I131" t="s">
+        <v>549</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6988,66 +7197,57 @@
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E132" s="2">
-        <v>44250.86356381232</v>
+        <v>44252.196563508463</v>
       </c>
       <c r="F132" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>456</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
       </c>
-      <c r="C133" t="s">
-        <v>281</v>
-      </c>
       <c r="D133" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E133" s="2">
-        <v>44250.86356384696</v>
+        <v>44252.196563565783</v>
       </c>
       <c r="F133" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H133" t="s">
-        <v>457</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7058,31 +7258,31 @@
         <v>282</v>
       </c>
       <c r="D134" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E134" s="2">
-        <v>44250.86356387</v>
+        <v>44252.196563612037</v>
       </c>
       <c r="F134" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G134">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>458</v>
-      </c>
-      <c r="I134">
-        <v>25</v>
+        <v>460</v>
+      </c>
+      <c r="I134" t="s">
+        <v>548</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7093,31 +7293,31 @@
         <v>283</v>
       </c>
       <c r="D135" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E135" s="2">
-        <v>44250.86356390464</v>
+        <v>44252.19656364699</v>
       </c>
       <c r="F135" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>459</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="I135" t="s">
+        <v>579</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7128,31 +7328,31 @@
         <v>284</v>
       </c>
       <c r="D136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E136" s="2">
-        <v>44250.86356393887</v>
+        <v>44252.196563681653</v>
       </c>
       <c r="F136" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>460</v>
-      </c>
-      <c r="I136">
-        <v>24</v>
+        <v>462</v>
+      </c>
+      <c r="I136" t="s">
+        <v>566</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7163,31 +7363,31 @@
         <v>285</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E137" s="2">
-        <v>44250.86356397392</v>
+        <v>44252.196563727623</v>
       </c>
       <c r="F137" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>461</v>
-      </c>
-      <c r="I137">
-        <v>19</v>
+        <v>463</v>
+      </c>
+      <c r="I137" t="s">
+        <v>535</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7198,98 +7398,98 @@
         <v>286</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E138" s="2">
-        <v>44250.86356400853</v>
+        <v>44252.196563762453</v>
       </c>
       <c r="F138" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>462</v>
-      </c>
-      <c r="I138">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="I138" t="s">
+        <v>554</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
+      <c r="C139" t="s">
+        <v>287</v>
+      </c>
       <c r="D139" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E139" s="2">
-        <v>44250.86356403164</v>
+        <v>44252.196563797057</v>
       </c>
       <c r="F139" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>463</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="I139" t="s">
+        <v>540</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
       </c>
-      <c r="C140" t="s">
-        <v>287</v>
-      </c>
       <c r="D140" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E140" s="2">
-        <v>44250.86356406625</v>
+        <v>44252.196563843238</v>
       </c>
       <c r="F140" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G140">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>464</v>
-      </c>
-      <c r="I140">
-        <v>12</v>
+        <v>466</v>
+      </c>
+      <c r="I140" t="s">
+        <v>580</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7300,63 +7500,66 @@
         <v>288</v>
       </c>
       <c r="D141" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E141" s="2">
-        <v>44250.86356410087</v>
+        <v>44252.196563877871</v>
       </c>
       <c r="F141" s="2">
-        <v>44097.86355324074</v>
+        <v>44099.196562500001</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>465</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="I141" t="s">
+        <v>541</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
       </c>
+      <c r="C142" t="s">
+        <v>289</v>
+      </c>
       <c r="D142" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E142" s="2">
-        <v>44250.86374489619</v>
+        <v>44252.196749268689</v>
       </c>
       <c r="F142" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>466</v>
-      </c>
-      <c r="I142">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="I142" t="s">
+        <v>530</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7364,31 +7567,31 @@
         <v>141</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E143" s="2">
-        <v>44250.86374493081</v>
+        <v>44252.196749303279</v>
       </c>
       <c r="F143" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>467</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
+        <v>469</v>
+      </c>
+      <c r="I143" t="s">
+        <v>540</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7396,31 +7599,28 @@
         <v>142</v>
       </c>
       <c r="D144" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E144" s="2">
-        <v>44250.86374496545</v>
+        <v>44252.196749349467</v>
       </c>
       <c r="F144" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>468</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
+        <v>470</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7428,66 +7628,63 @@
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E145" s="2">
-        <v>44250.86374501163</v>
+        <v>44252.1967493841</v>
       </c>
       <c r="F145" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G145">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>469</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="I145" t="s">
+        <v>538</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
       </c>
-      <c r="C146" t="s">
-        <v>289</v>
-      </c>
       <c r="D146" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E146" s="2">
-        <v>44250.86374503931</v>
+        <v>44252.196749418748</v>
       </c>
       <c r="F146" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G146">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>470</v>
-      </c>
-      <c r="I146">
-        <v>10</v>
+        <v>472</v>
+      </c>
+      <c r="I146" t="s">
+        <v>581</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7498,63 +7695,66 @@
         <v>290</v>
       </c>
       <c r="D147" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E147" s="2">
-        <v>44250.86374507393</v>
+        <v>44252.196749453389</v>
       </c>
       <c r="F147" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G147">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>471</v>
-      </c>
-      <c r="I147">
-        <v>14</v>
+        <v>473</v>
+      </c>
+      <c r="I147" t="s">
+        <v>548</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
       </c>
+      <c r="C148" t="s">
+        <v>291</v>
+      </c>
       <c r="D148" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E148" s="2">
-        <v>44250.86374510857</v>
+        <v>44252.196749488001</v>
       </c>
       <c r="F148" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>472</v>
-      </c>
-      <c r="I148">
-        <v>4</v>
+        <v>474</v>
+      </c>
+      <c r="I148" t="s">
+        <v>565</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7562,165 +7762,165 @@
         <v>147</v>
       </c>
       <c r="D149" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E149" s="2">
-        <v>44250.86374516629</v>
+        <v>44252.196749534181</v>
       </c>
       <c r="F149" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>473</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
+        <v>475</v>
+      </c>
+      <c r="I149" t="s">
+        <v>540</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
       </c>
-      <c r="C150" t="s">
-        <v>291</v>
-      </c>
       <c r="D150" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E150" s="2">
-        <v>44250.86374520093</v>
+        <v>44252.196749568808</v>
       </c>
       <c r="F150" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>474</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="I150" t="s">
+        <v>582</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
       </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
       <c r="D151" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E151" s="2">
-        <v>44250.86374523555</v>
+        <v>44252.196749603463</v>
       </c>
       <c r="F151" s="2">
-        <v>44097.86373842593</v>
+        <v>44099.196747685193</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>475</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="I151" t="s">
+        <v>583</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
       </c>
-      <c r="C152" t="s">
-        <v>292</v>
-      </c>
       <c r="D152" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E152" s="2">
-        <v>44250.86393512554</v>
+        <v>44252.196937776389</v>
       </c>
       <c r="F152" s="2">
-        <v>44097.86392361111</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>476</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
+        <v>478</v>
+      </c>
+      <c r="I152" t="s">
+        <v>539</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
       </c>
+      <c r="C153" t="s">
+        <v>293</v>
+      </c>
       <c r="D153" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E153" s="2">
-        <v>44250.86393517172</v>
+        <v>44252.196937811023</v>
       </c>
       <c r="F153" s="2">
-        <v>44097.86392361111</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G153">
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>477</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="I153" t="s">
+        <v>576</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7728,66 +7928,63 @@
         <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E154" s="2">
-        <v>44250.86393521813</v>
+        <v>44252.196937845649</v>
       </c>
       <c r="F154" s="2">
-        <v>44097.86393518518</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G154">
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>478</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="I154" t="s">
+        <v>565</v>
       </c>
       <c r="J154">
         <v>0</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
       </c>
-      <c r="C155" t="s">
-        <v>293</v>
-      </c>
       <c r="D155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E155" s="2">
-        <v>44250.86393527612</v>
+        <v>44252.196937891829</v>
       </c>
       <c r="F155" s="2">
-        <v>44097.86393518518</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>479</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="I155" t="s">
+        <v>537</v>
       </c>
       <c r="J155">
         <v>0</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7798,63 +7995,66 @@
         <v>294</v>
       </c>
       <c r="D156" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E156" s="2">
-        <v>44250.86393531073</v>
+        <v>44252.196937949557</v>
       </c>
       <c r="F156" s="2">
-        <v>44097.86393518518</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G156">
         <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>480</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
+        <v>482</v>
+      </c>
+      <c r="I156" t="s">
+        <v>584</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
       </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
       <c r="D157" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E157" s="2">
-        <v>44250.86393533332</v>
+        <v>44252.19693799573</v>
       </c>
       <c r="F157" s="2">
-        <v>44097.86393518518</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>481</v>
-      </c>
-      <c r="I157">
-        <v>6</v>
+        <v>483</v>
+      </c>
+      <c r="I157" t="s">
+        <v>585</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7862,31 +8062,31 @@
         <v>156</v>
       </c>
       <c r="D158" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E158" s="2">
-        <v>44250.86393536839</v>
+        <v>44252.19693805345</v>
       </c>
       <c r="F158" s="2">
-        <v>44097.86393518518</v>
+        <v>44099.196932870371</v>
       </c>
       <c r="G158">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>482</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
+        <v>484</v>
+      </c>
+      <c r="I158" t="s">
+        <v>529</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7894,165 +8094,165 @@
         <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E159" s="2">
-        <v>44250.86393541416</v>
+        <v>44252.196938088076</v>
       </c>
       <c r="F159" s="2">
-        <v>44066.86393518518</v>
+        <v>44068.196932870371</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>483</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="I159" t="s">
+        <v>554</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
       </c>
-      <c r="C160" t="s">
-        <v>295</v>
-      </c>
       <c r="D160" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E160" s="2">
-        <v>44250.86393547184</v>
+        <v>44252.196938134257</v>
       </c>
       <c r="F160" s="2">
-        <v>44066.86393518518</v>
+        <v>44068.196932870371</v>
       </c>
       <c r="G160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>484</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="I160" t="s">
+        <v>586</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
       </c>
+      <c r="C161" t="s">
+        <v>296</v>
+      </c>
       <c r="D161" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E161" s="2">
-        <v>44250.86393550647</v>
+        <v>44252.19693816889</v>
       </c>
       <c r="F161" s="2">
-        <v>44066.86393518518</v>
+        <v>44068.196932870371</v>
       </c>
       <c r="G161">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>485</v>
-      </c>
-      <c r="I161">
-        <v>2</v>
+        <v>487</v>
+      </c>
+      <c r="I161" t="s">
+        <v>583</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
       </c>
-      <c r="C162" t="s">
-        <v>296</v>
-      </c>
       <c r="D162" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E162" s="2">
-        <v>44250.86413330754</v>
+        <v>44252.19712738302</v>
       </c>
       <c r="F162" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>486</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="I162" t="s">
+        <v>538</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
       </c>
+      <c r="C163" t="s">
+        <v>297</v>
+      </c>
       <c r="D163" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E163" s="2">
-        <v>44250.86413334219</v>
+        <v>44252.197127429201</v>
       </c>
       <c r="F163" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G163">
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>487</v>
-      </c>
-      <c r="I163">
-        <v>2</v>
+        <v>489</v>
+      </c>
+      <c r="I163" t="s">
+        <v>587</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8060,31 +8260,31 @@
         <v>162</v>
       </c>
       <c r="D164" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E164" s="2">
-        <v>44250.86413337684</v>
+        <v>44252.197127464249</v>
       </c>
       <c r="F164" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G164">
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>488</v>
-      </c>
-      <c r="I164">
-        <v>7</v>
+        <v>490</v>
+      </c>
+      <c r="I164" t="s">
+        <v>538</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8092,54 +8292,51 @@
         <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E165" s="2">
-        <v>44250.8641333999</v>
+        <v>44252.197127498883</v>
       </c>
       <c r="F165" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>489</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
+        <v>491</v>
+      </c>
+      <c r="I165" t="s">
+        <v>553</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
       </c>
-      <c r="C166" t="s">
-        <v>297</v>
-      </c>
       <c r="D166" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E166" s="2">
-        <v>44250.86413343452</v>
+        <v>44252.197127533509</v>
       </c>
       <c r="F166" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G166">
         <v>5</v>
       </c>
       <c r="H166" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -8148,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8162,31 +8359,31 @@
         <v>298</v>
       </c>
       <c r="D167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E167" s="2">
-        <v>44250.86413349187</v>
+        <v>44252.197127591229</v>
       </c>
       <c r="F167" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>491</v>
-      </c>
-      <c r="I167">
-        <v>31</v>
+        <v>493</v>
+      </c>
+      <c r="I167" t="s">
+        <v>588</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8197,31 +8394,31 @@
         <v>299</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E168" s="2">
-        <v>44250.86413353817</v>
+        <v>44252.197127625863</v>
       </c>
       <c r="F168" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>492</v>
-      </c>
-      <c r="I168">
-        <v>12</v>
+        <v>494</v>
+      </c>
+      <c r="I168" t="s">
+        <v>589</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8232,31 +8429,31 @@
         <v>300</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E169" s="2">
-        <v>44250.8641335731</v>
+        <v>44252.197127660511</v>
       </c>
       <c r="F169" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>493</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="I169" t="s">
+        <v>541</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8267,31 +8464,31 @@
         <v>301</v>
       </c>
       <c r="D170" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E170" s="2">
-        <v>44250.86413360725</v>
+        <v>44252.197127695123</v>
       </c>
       <c r="F170" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>494</v>
-      </c>
-      <c r="I170">
-        <v>10</v>
+        <v>496</v>
+      </c>
+      <c r="I170" t="s">
+        <v>590</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8302,31 +8499,31 @@
         <v>302</v>
       </c>
       <c r="D171" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E171" s="2">
-        <v>44250.86413365389</v>
+        <v>44252.19712774131</v>
       </c>
       <c r="F171" s="2">
-        <v>44066.86413194444</v>
+        <v>44068.197118055563</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>495</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="I171" t="s">
+        <v>548</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8337,31 +8534,31 @@
         <v>303</v>
       </c>
       <c r="D172" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E172" s="2">
-        <v>44250.86433450083</v>
+        <v>44252.197318693979</v>
       </c>
       <c r="F172" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>496</v>
-      </c>
-      <c r="I172">
-        <v>5</v>
+        <v>498</v>
+      </c>
+      <c r="I172" t="s">
+        <v>591</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8372,101 +8569,101 @@
         <v>304</v>
       </c>
       <c r="D173" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E173" s="2">
-        <v>44250.86433453507</v>
+        <v>44252.197318740407</v>
       </c>
       <c r="F173" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>497</v>
-      </c>
-      <c r="I173">
-        <v>6</v>
+        <v>499</v>
+      </c>
+      <c r="I173" t="s">
+        <v>536</v>
       </c>
       <c r="J173">
         <v>0</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C174" t="s">
         <v>305</v>
       </c>
       <c r="D174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E174" s="2">
-        <v>44250.86433457011</v>
+        <v>44252.197318775638</v>
       </c>
       <c r="F174" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G174">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>498</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="I174" t="s">
+        <v>529</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="C175" t="s">
         <v>306</v>
       </c>
       <c r="D175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E175" s="2">
-        <v>44250.8643346043</v>
+        <v>44252.197318821643</v>
       </c>
       <c r="F175" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H175" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I175">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8477,31 +8674,31 @@
         <v>307</v>
       </c>
       <c r="D176" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E176" s="2">
-        <v>44250.86433463937</v>
+        <v>44252.197318855848</v>
       </c>
       <c r="F176" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H176" t="s">
-        <v>500</v>
-      </c>
-      <c r="I176">
-        <v>2</v>
+        <v>502</v>
+      </c>
+      <c r="I176" t="s">
+        <v>556</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8512,130 +8709,133 @@
         <v>308</v>
       </c>
       <c r="D177" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E177" s="2">
-        <v>44250.86433467397</v>
+        <v>44252.197318890932</v>
       </c>
       <c r="F177" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>501</v>
-      </c>
-      <c r="I177">
-        <v>14</v>
+        <v>503</v>
+      </c>
+      <c r="I177" t="s">
+        <v>538</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>175</v>
       </c>
+      <c r="C178" t="s">
+        <v>309</v>
+      </c>
       <c r="D178" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E178" s="2">
-        <v>44250.86433473169</v>
+        <v>44252.197318937069</v>
       </c>
       <c r="F178" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>502</v>
-      </c>
-      <c r="I178">
-        <v>12</v>
+        <v>504</v>
+      </c>
+      <c r="I178" t="s">
+        <v>565</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>176</v>
       </c>
-      <c r="C179" t="s">
-        <v>309</v>
-      </c>
       <c r="D179" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E179" s="2">
-        <v>44250.86433476625</v>
+        <v>44252.19731897465</v>
       </c>
       <c r="F179" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G179">
         <v>5</v>
       </c>
       <c r="H179" t="s">
-        <v>503</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="I179" t="s">
+        <v>541</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>177</v>
       </c>
+      <c r="C180" t="s">
+        <v>310</v>
+      </c>
       <c r="D180" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E180" s="2">
-        <v>44250.86433480087</v>
+        <v>44252.197319009691</v>
       </c>
       <c r="F180" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G180">
         <v>5</v>
       </c>
       <c r="H180" t="s">
-        <v>504</v>
-      </c>
-      <c r="I180">
-        <v>1</v>
+        <v>506</v>
+      </c>
+      <c r="I180" t="s">
+        <v>559</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8643,66 +8843,60 @@
         <v>178</v>
       </c>
       <c r="D181" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E181" s="2">
-        <v>44250.86433482395</v>
+        <v>44252.19731904436</v>
       </c>
       <c r="F181" s="2">
-        <v>44066.8643287037</v>
+        <v>44068.197314814817</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H181" t="s">
-        <v>505</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>179</v>
       </c>
-      <c r="C182" t="s">
-        <v>310</v>
-      </c>
       <c r="D182" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E182" s="2">
-        <v>44250.86453493356</v>
+        <v>44252.197512161183</v>
       </c>
       <c r="F182" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>506</v>
-      </c>
-      <c r="I182">
-        <v>1</v>
+        <v>508</v>
+      </c>
+      <c r="I182" t="s">
+        <v>592</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8713,31 +8907,28 @@
         <v>311</v>
       </c>
       <c r="D183" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E183" s="2">
-        <v>44250.86453496853</v>
+        <v>44252.197512207349</v>
       </c>
       <c r="F183" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>507</v>
-      </c>
-      <c r="I183">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8748,31 +8939,31 @@
         <v>312</v>
       </c>
       <c r="D184" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E184" s="2">
-        <v>44250.86453500327</v>
+        <v>44252.197512241983</v>
       </c>
       <c r="F184" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>508</v>
-      </c>
-      <c r="I184">
-        <v>20</v>
+        <v>510</v>
+      </c>
+      <c r="I184" t="s">
+        <v>565</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8783,31 +8974,31 @@
         <v>313</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E185" s="2">
-        <v>44250.86453502632</v>
+        <v>44252.197512288163</v>
       </c>
       <c r="F185" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>509</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="I185" t="s">
+        <v>585</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8818,31 +9009,31 @@
         <v>314</v>
       </c>
       <c r="D186" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E186" s="2">
-        <v>44250.86453506095</v>
+        <v>44252.197512322789</v>
       </c>
       <c r="F186" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>510</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="I186" t="s">
+        <v>593</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8853,31 +9044,31 @@
         <v>315</v>
       </c>
       <c r="D187" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E187" s="2">
-        <v>44250.86453510712</v>
+        <v>44252.197512357423</v>
       </c>
       <c r="F187" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>511</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="I187" t="s">
+        <v>558</v>
       </c>
       <c r="J187">
         <v>0</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8888,31 +9079,31 @@
         <v>316</v>
       </c>
       <c r="D188" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E188" s="2">
-        <v>44250.86453514174</v>
+        <v>44252.19751242669</v>
       </c>
       <c r="F188" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>512</v>
-      </c>
-      <c r="I188">
-        <v>58</v>
+        <v>514</v>
+      </c>
+      <c r="I188" t="s">
+        <v>586</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8923,31 +9114,31 @@
         <v>317</v>
       </c>
       <c r="D189" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E189" s="2">
-        <v>44250.86453517646</v>
+        <v>44252.197512472863</v>
       </c>
       <c r="F189" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>513</v>
-      </c>
-      <c r="I189">
-        <v>9</v>
+        <v>515</v>
+      </c>
+      <c r="I189" t="s">
+        <v>594</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8958,31 +9149,31 @@
         <v>318</v>
       </c>
       <c r="D190" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E190" s="2">
-        <v>44250.86453523388</v>
+        <v>44252.197512519117</v>
       </c>
       <c r="F190" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H190" t="s">
-        <v>514</v>
-      </c>
-      <c r="I190">
-        <v>23</v>
+        <v>516</v>
+      </c>
+      <c r="I190" t="s">
+        <v>556</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8993,31 +9184,31 @@
         <v>319</v>
       </c>
       <c r="D191" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E191" s="2">
-        <v>44250.86453526872</v>
+        <v>44252.197512565217</v>
       </c>
       <c r="F191" s="2">
-        <v>44066.86452546297</v>
+        <v>44068.197511574072</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>515</v>
-      </c>
-      <c r="I191">
-        <v>2</v>
+        <v>517</v>
+      </c>
+      <c r="I191" t="s">
+        <v>537</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9028,63 +9219,66 @@
         <v>320</v>
       </c>
       <c r="D192" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E192" s="2">
-        <v>44250.86474525713</v>
+        <v>44252.19771013553</v>
       </c>
       <c r="F192" s="2">
-        <v>44066.8647337963</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>516</v>
-      </c>
-      <c r="I192">
-        <v>28</v>
+        <v>518</v>
+      </c>
+      <c r="I192" t="s">
+        <v>549</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>190</v>
       </c>
+      <c r="C193" t="s">
+        <v>321</v>
+      </c>
       <c r="D193" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E193" s="2">
-        <v>44250.86474543022</v>
+        <v>44252.1977101702</v>
       </c>
       <c r="F193" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H193" t="s">
-        <v>517</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="I193" t="s">
+        <v>581</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9092,19 +9286,19 @@
         <v>191</v>
       </c>
       <c r="D194" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E194" s="2">
-        <v>44250.86474556867</v>
+        <v>44252.197710204833</v>
       </c>
       <c r="F194" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H194" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -9113,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9124,19 +9318,19 @@
         <v>192</v>
       </c>
       <c r="D195" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E195" s="2">
-        <v>44250.86474566103</v>
+        <v>44252.197710251014</v>
       </c>
       <c r="F195" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G195">
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -9145,77 +9339,77 @@
         <v>0</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
       </c>
-      <c r="C196" t="s">
-        <v>321</v>
-      </c>
       <c r="D196" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E196" s="2">
-        <v>44250.86474583428</v>
+        <v>44252.197710285647</v>
       </c>
       <c r="F196" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G196">
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>520</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
+        <v>522</v>
+      </c>
+      <c r="I196" t="s">
+        <v>595</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>194</v>
       </c>
+      <c r="C197" t="s">
+        <v>322</v>
+      </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E197" s="2">
-        <v>44250.86474594953</v>
+        <v>44252.197710320273</v>
       </c>
       <c r="F197" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G197">
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>521</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
+        <v>523</v>
+      </c>
+      <c r="I197" t="s">
+        <v>554</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9223,66 +9417,60 @@
         <v>195</v>
       </c>
       <c r="D198" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E198" s="2">
-        <v>44250.86474618046</v>
+        <v>44252.197710366469</v>
       </c>
       <c r="F198" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H198" t="s">
-        <v>522</v>
-      </c>
-      <c r="I198">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>196</v>
       </c>
-      <c r="C199" t="s">
-        <v>322</v>
-      </c>
       <c r="D199" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E199" s="2">
-        <v>44250.86474627277</v>
+        <v>44252.197710401088</v>
       </c>
       <c r="F199" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>523</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="I199" t="s">
+        <v>540</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9293,60 +9481,63 @@
         <v>323</v>
       </c>
       <c r="D200" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E200" s="2">
-        <v>44250.86474645782</v>
+        <v>44252.197710448301</v>
       </c>
       <c r="F200" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>524</v>
-      </c>
-      <c r="I200">
-        <v>9</v>
+        <v>526</v>
+      </c>
+      <c r="I200" t="s">
+        <v>596</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>198</v>
       </c>
+      <c r="C201" t="s">
+        <v>324</v>
+      </c>
       <c r="D201" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E201" s="2">
-        <v>44250.86474663065</v>
+        <v>44252.19771048292</v>
       </c>
       <c r="F201" s="2">
-        <v>44066.86474537037</v>
+        <v>44068.197708333333</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>525</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
+        <v>527</v>
+      </c>
+      <c r="I201" t="s">
+        <v>556</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -9359,198 +9550,190 @@
     <hyperlink ref="K7" r:id="rId6"/>
     <hyperlink ref="K8" r:id="rId7"/>
     <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
-    <hyperlink ref="K23" r:id="rId22"/>
-    <hyperlink ref="K24" r:id="rId23"/>
-    <hyperlink ref="K25" r:id="rId24"/>
-    <hyperlink ref="K26" r:id="rId25"/>
-    <hyperlink ref="K27" r:id="rId26"/>
-    <hyperlink ref="K28" r:id="rId27"/>
-    <hyperlink ref="K29" r:id="rId28"/>
-    <hyperlink ref="K30" r:id="rId29"/>
-    <hyperlink ref="K31" r:id="rId30"/>
-    <hyperlink ref="K32" r:id="rId31"/>
-    <hyperlink ref="K33" r:id="rId32"/>
-    <hyperlink ref="K34" r:id="rId33"/>
-    <hyperlink ref="K35" r:id="rId34"/>
-    <hyperlink ref="K36" r:id="rId35"/>
-    <hyperlink ref="K37" r:id="rId36"/>
-    <hyperlink ref="K38" r:id="rId37"/>
-    <hyperlink ref="K39" r:id="rId38"/>
-    <hyperlink ref="K40" r:id="rId39"/>
-    <hyperlink ref="K41" r:id="rId40"/>
-    <hyperlink ref="K42" r:id="rId41"/>
-    <hyperlink ref="K43" r:id="rId42"/>
-    <hyperlink ref="K44" r:id="rId43"/>
-    <hyperlink ref="K45" r:id="rId44"/>
-    <hyperlink ref="K46" r:id="rId45"/>
-    <hyperlink ref="K47" r:id="rId46"/>
-    <hyperlink ref="K48" r:id="rId47"/>
-    <hyperlink ref="K49" r:id="rId48"/>
-    <hyperlink ref="K50" r:id="rId49"/>
-    <hyperlink ref="K51" r:id="rId50"/>
-    <hyperlink ref="K52" r:id="rId51"/>
-    <hyperlink ref="K53" r:id="rId52"/>
-    <hyperlink ref="K54" r:id="rId53"/>
-    <hyperlink ref="K55" r:id="rId54"/>
-    <hyperlink ref="K56" r:id="rId55"/>
-    <hyperlink ref="K57" r:id="rId56"/>
-    <hyperlink ref="K58" r:id="rId57"/>
-    <hyperlink ref="K59" r:id="rId58"/>
-    <hyperlink ref="K60" r:id="rId59"/>
-    <hyperlink ref="K61" r:id="rId60"/>
-    <hyperlink ref="K62" r:id="rId61"/>
-    <hyperlink ref="K63" r:id="rId62"/>
-    <hyperlink ref="K64" r:id="rId63"/>
-    <hyperlink ref="K65" r:id="rId64" location="section-reviews"/>
-    <hyperlink ref="K66" r:id="rId65"/>
-    <hyperlink ref="K67" r:id="rId66"/>
-    <hyperlink ref="K68" r:id="rId67"/>
-    <hyperlink ref="K69" r:id="rId68"/>
-    <hyperlink ref="K70" r:id="rId69"/>
-    <hyperlink ref="K71" r:id="rId70"/>
-    <hyperlink ref="K72" r:id="rId71"/>
-    <hyperlink ref="K73" r:id="rId72" location="section-reviews"/>
-    <hyperlink ref="K74" r:id="rId73"/>
-    <hyperlink ref="K75" r:id="rId74"/>
-    <hyperlink ref="K76" r:id="rId75"/>
-    <hyperlink ref="K77" r:id="rId76"/>
-    <hyperlink ref="K78" r:id="rId77"/>
-    <hyperlink ref="K79" r:id="rId78"/>
-    <hyperlink ref="K80" r:id="rId79" location="section-reviews"/>
-    <hyperlink ref="K81" r:id="rId80" location="section-reviews"/>
-    <hyperlink ref="K82" r:id="rId81"/>
-    <hyperlink ref="K83" r:id="rId82"/>
-    <hyperlink ref="K84" r:id="rId83"/>
-    <hyperlink ref="K85" r:id="rId84"/>
-    <hyperlink ref="K86" r:id="rId85"/>
-    <hyperlink ref="K87" r:id="rId86"/>
-    <hyperlink ref="K88" r:id="rId87"/>
-    <hyperlink ref="K89" r:id="rId88"/>
-    <hyperlink ref="K90" r:id="rId89"/>
-    <hyperlink ref="K91" r:id="rId90"/>
-    <hyperlink ref="K92" r:id="rId91"/>
-    <hyperlink ref="K93" r:id="rId92"/>
-    <hyperlink ref="K94" r:id="rId93"/>
-    <hyperlink ref="K95" r:id="rId94"/>
-    <hyperlink ref="K96" r:id="rId95" location="section-reviews"/>
-    <hyperlink ref="K97" r:id="rId96"/>
-    <hyperlink ref="K98" r:id="rId97" location="section-reviews"/>
-    <hyperlink ref="K99" r:id="rId98"/>
-    <hyperlink ref="K100" r:id="rId99"/>
-    <hyperlink ref="K101" r:id="rId100" location="section-reviews"/>
-    <hyperlink ref="K102" r:id="rId101"/>
-    <hyperlink ref="K103" r:id="rId102"/>
-    <hyperlink ref="K104" r:id="rId103"/>
-    <hyperlink ref="K105" r:id="rId104" location="section-reviews"/>
-    <hyperlink ref="K106" r:id="rId105"/>
-    <hyperlink ref="K107" r:id="rId106"/>
-    <hyperlink ref="K108" r:id="rId107"/>
-    <hyperlink ref="K109" r:id="rId108" location="section-reviews"/>
-    <hyperlink ref="K110" r:id="rId109"/>
-    <hyperlink ref="K111" r:id="rId110"/>
-    <hyperlink ref="K112" r:id="rId111"/>
-    <hyperlink ref="K113" r:id="rId112"/>
-    <hyperlink ref="K114" r:id="rId113"/>
-    <hyperlink ref="K115" r:id="rId114" location="section-reviews"/>
-    <hyperlink ref="K116" r:id="rId115"/>
-    <hyperlink ref="K117" r:id="rId116"/>
-    <hyperlink ref="K118" r:id="rId117"/>
-    <hyperlink ref="K119" r:id="rId118"/>
-    <hyperlink ref="K120" r:id="rId119"/>
-    <hyperlink ref="K121" r:id="rId120"/>
-    <hyperlink ref="K122" r:id="rId121"/>
-    <hyperlink ref="K123" r:id="rId122"/>
-    <hyperlink ref="K124" r:id="rId123"/>
-    <hyperlink ref="K125" r:id="rId124"/>
-    <hyperlink ref="K126" r:id="rId125"/>
-    <hyperlink ref="K127" r:id="rId126"/>
-    <hyperlink ref="K128" r:id="rId127"/>
-    <hyperlink ref="K129" r:id="rId128"/>
-    <hyperlink ref="K130" r:id="rId129"/>
-    <hyperlink ref="K131" r:id="rId130"/>
-    <hyperlink ref="K132" r:id="rId131"/>
-    <hyperlink ref="K133" r:id="rId132"/>
-    <hyperlink ref="K134" r:id="rId133"/>
-    <hyperlink ref="K135" r:id="rId134"/>
-    <hyperlink ref="K136" r:id="rId135"/>
-    <hyperlink ref="K137" r:id="rId136"/>
-    <hyperlink ref="K138" r:id="rId137"/>
-    <hyperlink ref="K139" r:id="rId138"/>
-    <hyperlink ref="K140" r:id="rId139"/>
-    <hyperlink ref="K141" r:id="rId140"/>
-    <hyperlink ref="K142" r:id="rId141"/>
-    <hyperlink ref="K143" r:id="rId142"/>
-    <hyperlink ref="K144" r:id="rId143"/>
-    <hyperlink ref="K145" r:id="rId144"/>
-    <hyperlink ref="K146" r:id="rId145"/>
-    <hyperlink ref="K147" r:id="rId146"/>
-    <hyperlink ref="K148" r:id="rId147"/>
-    <hyperlink ref="K149" r:id="rId148"/>
-    <hyperlink ref="K150" r:id="rId149"/>
-    <hyperlink ref="K151" r:id="rId150"/>
-    <hyperlink ref="K152" r:id="rId151"/>
-    <hyperlink ref="K153" r:id="rId152"/>
-    <hyperlink ref="K154" r:id="rId153"/>
-    <hyperlink ref="K155" r:id="rId154"/>
-    <hyperlink ref="K156" r:id="rId155"/>
-    <hyperlink ref="K157" r:id="rId156"/>
-    <hyperlink ref="K158" r:id="rId157"/>
-    <hyperlink ref="K159" r:id="rId158"/>
-    <hyperlink ref="K160" r:id="rId159"/>
-    <hyperlink ref="K161" r:id="rId160"/>
-    <hyperlink ref="K162" r:id="rId161"/>
-    <hyperlink ref="K163" r:id="rId162"/>
-    <hyperlink ref="K164" r:id="rId163"/>
-    <hyperlink ref="K165" r:id="rId164"/>
-    <hyperlink ref="K166" r:id="rId165"/>
-    <hyperlink ref="K167" r:id="rId166"/>
-    <hyperlink ref="K168" r:id="rId167"/>
-    <hyperlink ref="K169" r:id="rId168"/>
-    <hyperlink ref="K170" r:id="rId169"/>
-    <hyperlink ref="K171" r:id="rId170"/>
-    <hyperlink ref="K172" r:id="rId171"/>
-    <hyperlink ref="K173" r:id="rId172"/>
-    <hyperlink ref="K174" r:id="rId173"/>
-    <hyperlink ref="K175" r:id="rId174"/>
-    <hyperlink ref="K176" r:id="rId175"/>
-    <hyperlink ref="K177" r:id="rId176"/>
-    <hyperlink ref="K178" r:id="rId177"/>
-    <hyperlink ref="K179" r:id="rId178"/>
-    <hyperlink ref="K180" r:id="rId179"/>
-    <hyperlink ref="K181" r:id="rId180"/>
-    <hyperlink ref="K182" r:id="rId181"/>
-    <hyperlink ref="K183" r:id="rId182"/>
-    <hyperlink ref="K184" r:id="rId183"/>
-    <hyperlink ref="K185" r:id="rId184"/>
-    <hyperlink ref="K186" r:id="rId185"/>
-    <hyperlink ref="K187" r:id="rId186"/>
-    <hyperlink ref="K188" r:id="rId187"/>
-    <hyperlink ref="K189" r:id="rId188"/>
-    <hyperlink ref="K190" r:id="rId189"/>
-    <hyperlink ref="K191" r:id="rId190"/>
-    <hyperlink ref="K192" r:id="rId191"/>
-    <hyperlink ref="K193" r:id="rId192"/>
-    <hyperlink ref="K194" r:id="rId193"/>
-    <hyperlink ref="K195" r:id="rId194"/>
-    <hyperlink ref="K196" r:id="rId195"/>
-    <hyperlink ref="K197" r:id="rId196"/>
-    <hyperlink ref="K198" r:id="rId197"/>
-    <hyperlink ref="K199" r:id="rId198"/>
-    <hyperlink ref="K200" r:id="rId199"/>
-    <hyperlink ref="K201" r:id="rId200"/>
+    <hyperlink ref="K18" r:id="rId9"/>
+    <hyperlink ref="K19" r:id="rId10"/>
+    <hyperlink ref="K20" r:id="rId11"/>
+    <hyperlink ref="K21" r:id="rId12"/>
+    <hyperlink ref="K22" r:id="rId13"/>
+    <hyperlink ref="K23" r:id="rId14"/>
+    <hyperlink ref="K24" r:id="rId15"/>
+    <hyperlink ref="K25" r:id="rId16"/>
+    <hyperlink ref="K26" r:id="rId17"/>
+    <hyperlink ref="K27" r:id="rId18"/>
+    <hyperlink ref="K28" r:id="rId19"/>
+    <hyperlink ref="K29" r:id="rId20"/>
+    <hyperlink ref="K30" r:id="rId21"/>
+    <hyperlink ref="K31" r:id="rId22"/>
+    <hyperlink ref="K32" r:id="rId23"/>
+    <hyperlink ref="K33" r:id="rId24"/>
+    <hyperlink ref="K34" r:id="rId25"/>
+    <hyperlink ref="K35" r:id="rId26"/>
+    <hyperlink ref="K36" r:id="rId27"/>
+    <hyperlink ref="K37" r:id="rId28"/>
+    <hyperlink ref="K38" r:id="rId29"/>
+    <hyperlink ref="K39" r:id="rId30"/>
+    <hyperlink ref="K40" r:id="rId31"/>
+    <hyperlink ref="K41" r:id="rId32"/>
+    <hyperlink ref="K42" r:id="rId33"/>
+    <hyperlink ref="K43" r:id="rId34"/>
+    <hyperlink ref="K44" r:id="rId35"/>
+    <hyperlink ref="K45" r:id="rId36"/>
+    <hyperlink ref="K46" r:id="rId37"/>
+    <hyperlink ref="K47" r:id="rId38"/>
+    <hyperlink ref="K48" r:id="rId39"/>
+    <hyperlink ref="K49" r:id="rId40"/>
+    <hyperlink ref="K50" r:id="rId41"/>
+    <hyperlink ref="K51" r:id="rId42"/>
+    <hyperlink ref="K52" r:id="rId43"/>
+    <hyperlink ref="K53" r:id="rId44"/>
+    <hyperlink ref="K54" r:id="rId45"/>
+    <hyperlink ref="K55" r:id="rId46"/>
+    <hyperlink ref="K56" r:id="rId47"/>
+    <hyperlink ref="K57" r:id="rId48"/>
+    <hyperlink ref="K58" r:id="rId49"/>
+    <hyperlink ref="K59" r:id="rId50"/>
+    <hyperlink ref="K60" r:id="rId51"/>
+    <hyperlink ref="K61" r:id="rId52"/>
+    <hyperlink ref="K62" r:id="rId53"/>
+    <hyperlink ref="K63" r:id="rId54"/>
+    <hyperlink ref="K64" r:id="rId55"/>
+    <hyperlink ref="K65" r:id="rId56"/>
+    <hyperlink ref="K66" r:id="rId57" location="section-reviews"/>
+    <hyperlink ref="K67" r:id="rId58"/>
+    <hyperlink ref="K68" r:id="rId59"/>
+    <hyperlink ref="K69" r:id="rId60"/>
+    <hyperlink ref="K70" r:id="rId61"/>
+    <hyperlink ref="K71" r:id="rId62"/>
+    <hyperlink ref="K72" r:id="rId63"/>
+    <hyperlink ref="K73" r:id="rId64"/>
+    <hyperlink ref="K74" r:id="rId65" location="section-reviews"/>
+    <hyperlink ref="K75" r:id="rId66"/>
+    <hyperlink ref="K76" r:id="rId67"/>
+    <hyperlink ref="K77" r:id="rId68"/>
+    <hyperlink ref="K78" r:id="rId69"/>
+    <hyperlink ref="K79" r:id="rId70"/>
+    <hyperlink ref="K80" r:id="rId71"/>
+    <hyperlink ref="K81" r:id="rId72" location="section-reviews"/>
+    <hyperlink ref="K82" r:id="rId73" location="section-reviews"/>
+    <hyperlink ref="K83" r:id="rId74"/>
+    <hyperlink ref="K84" r:id="rId75"/>
+    <hyperlink ref="K85" r:id="rId76"/>
+    <hyperlink ref="K86" r:id="rId77"/>
+    <hyperlink ref="K87" r:id="rId78"/>
+    <hyperlink ref="K88" r:id="rId79"/>
+    <hyperlink ref="K89" r:id="rId80"/>
+    <hyperlink ref="K90" r:id="rId81"/>
+    <hyperlink ref="K91" r:id="rId82"/>
+    <hyperlink ref="K92" r:id="rId83"/>
+    <hyperlink ref="K93" r:id="rId84"/>
+    <hyperlink ref="K94" r:id="rId85"/>
+    <hyperlink ref="K95" r:id="rId86"/>
+    <hyperlink ref="K96" r:id="rId87"/>
+    <hyperlink ref="K97" r:id="rId88" location="section-reviews"/>
+    <hyperlink ref="K98" r:id="rId89"/>
+    <hyperlink ref="K99" r:id="rId90" location="section-reviews"/>
+    <hyperlink ref="K100" r:id="rId91"/>
+    <hyperlink ref="K101" r:id="rId92"/>
+    <hyperlink ref="K102" r:id="rId93" location="section-reviews"/>
+    <hyperlink ref="K103" r:id="rId94"/>
+    <hyperlink ref="K104" r:id="rId95"/>
+    <hyperlink ref="K105" r:id="rId96"/>
+    <hyperlink ref="K106" r:id="rId97" location="section-reviews"/>
+    <hyperlink ref="K107" r:id="rId98"/>
+    <hyperlink ref="K108" r:id="rId99"/>
+    <hyperlink ref="K109" r:id="rId100"/>
+    <hyperlink ref="K110" r:id="rId101" location="section-reviews"/>
+    <hyperlink ref="K111" r:id="rId102"/>
+    <hyperlink ref="K112" r:id="rId103"/>
+    <hyperlink ref="K113" r:id="rId104"/>
+    <hyperlink ref="K114" r:id="rId105"/>
+    <hyperlink ref="K115" r:id="rId106"/>
+    <hyperlink ref="K116" r:id="rId107" location="section-reviews"/>
+    <hyperlink ref="K117" r:id="rId108"/>
+    <hyperlink ref="K118" r:id="rId109"/>
+    <hyperlink ref="K119" r:id="rId110"/>
+    <hyperlink ref="K120" r:id="rId111"/>
+    <hyperlink ref="K121" r:id="rId112"/>
+    <hyperlink ref="K122" r:id="rId113"/>
+    <hyperlink ref="K123" r:id="rId114"/>
+    <hyperlink ref="K124" r:id="rId115"/>
+    <hyperlink ref="K125" r:id="rId116"/>
+    <hyperlink ref="K126" r:id="rId117"/>
+    <hyperlink ref="K127" r:id="rId118"/>
+    <hyperlink ref="K128" r:id="rId119"/>
+    <hyperlink ref="K129" r:id="rId120"/>
+    <hyperlink ref="K130" r:id="rId121"/>
+    <hyperlink ref="K131" r:id="rId122"/>
+    <hyperlink ref="K132" r:id="rId123"/>
+    <hyperlink ref="K133" r:id="rId124"/>
+    <hyperlink ref="K134" r:id="rId125"/>
+    <hyperlink ref="K135" r:id="rId126"/>
+    <hyperlink ref="K136" r:id="rId127"/>
+    <hyperlink ref="K137" r:id="rId128"/>
+    <hyperlink ref="K138" r:id="rId129"/>
+    <hyperlink ref="K139" r:id="rId130"/>
+    <hyperlink ref="K140" r:id="rId131"/>
+    <hyperlink ref="K141" r:id="rId132"/>
+    <hyperlink ref="K142" r:id="rId133"/>
+    <hyperlink ref="K143" r:id="rId134"/>
+    <hyperlink ref="K144" r:id="rId135"/>
+    <hyperlink ref="K145" r:id="rId136"/>
+    <hyperlink ref="K146" r:id="rId137"/>
+    <hyperlink ref="K147" r:id="rId138"/>
+    <hyperlink ref="K148" r:id="rId139"/>
+    <hyperlink ref="K149" r:id="rId140"/>
+    <hyperlink ref="K150" r:id="rId141"/>
+    <hyperlink ref="K151" r:id="rId142"/>
+    <hyperlink ref="K152" r:id="rId143"/>
+    <hyperlink ref="K153" r:id="rId144"/>
+    <hyperlink ref="K154" r:id="rId145"/>
+    <hyperlink ref="K155" r:id="rId146"/>
+    <hyperlink ref="K156" r:id="rId147"/>
+    <hyperlink ref="K157" r:id="rId148"/>
+    <hyperlink ref="K158" r:id="rId149"/>
+    <hyperlink ref="K159" r:id="rId150"/>
+    <hyperlink ref="K160" r:id="rId151"/>
+    <hyperlink ref="K161" r:id="rId152"/>
+    <hyperlink ref="K162" r:id="rId153"/>
+    <hyperlink ref="K163" r:id="rId154"/>
+    <hyperlink ref="K164" r:id="rId155"/>
+    <hyperlink ref="K165" r:id="rId156"/>
+    <hyperlink ref="K166" r:id="rId157"/>
+    <hyperlink ref="K167" r:id="rId158"/>
+    <hyperlink ref="K168" r:id="rId159"/>
+    <hyperlink ref="K169" r:id="rId160"/>
+    <hyperlink ref="K170" r:id="rId161"/>
+    <hyperlink ref="K171" r:id="rId162"/>
+    <hyperlink ref="K172" r:id="rId163"/>
+    <hyperlink ref="K173" r:id="rId164"/>
+    <hyperlink ref="K174" r:id="rId165"/>
+    <hyperlink ref="K175" r:id="rId166"/>
+    <hyperlink ref="K176" r:id="rId167"/>
+    <hyperlink ref="K177" r:id="rId168"/>
+    <hyperlink ref="K178" r:id="rId169"/>
+    <hyperlink ref="K179" r:id="rId170"/>
+    <hyperlink ref="K180" r:id="rId171"/>
+    <hyperlink ref="K181" r:id="rId172"/>
+    <hyperlink ref="K182" r:id="rId173"/>
+    <hyperlink ref="K183" r:id="rId174"/>
+    <hyperlink ref="K184" r:id="rId175"/>
+    <hyperlink ref="K185" r:id="rId176"/>
+    <hyperlink ref="K186" r:id="rId177"/>
+    <hyperlink ref="K187" r:id="rId178"/>
+    <hyperlink ref="K188" r:id="rId179"/>
+    <hyperlink ref="K189" r:id="rId180"/>
+    <hyperlink ref="K190" r:id="rId181"/>
+    <hyperlink ref="K191" r:id="rId182"/>
+    <hyperlink ref="K192" r:id="rId183"/>
+    <hyperlink ref="K193" r:id="rId184"/>
+    <hyperlink ref="K194" r:id="rId185"/>
+    <hyperlink ref="K195" r:id="rId186"/>
+    <hyperlink ref="K196" r:id="rId187"/>
+    <hyperlink ref="K197" r:id="rId188"/>
+    <hyperlink ref="K198" r:id="rId189"/>
+    <hyperlink ref="K199" r:id="rId190"/>
+    <hyperlink ref="K200" r:id="rId191"/>
+    <hyperlink ref="K201" r:id="rId192"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/deerhurst_newest_gm_reviews.xlsx
+++ b/data/deerhurst_newest_gm_reviews.xlsx
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:XFD9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
